--- a/biology/Zoologie/Curetis/Curetis.xlsx
+++ b/biology/Zoologie/Curetis/Curetis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Curetis est un genre de lépidoptères (papillons) de la famille des Lycaenidae. Il est l'unique genre de la sous-famille monotypique des Curetinae. 
-Ses espèces se rencontrent en Asie du Sud et du Sud-Est et en Océanie, sur une aire s'étendant du Sri Lanka aux îles Salomon[1]. Les chenilles possèdent un organe défensif unique en son genre, constitué de deux tubercules abdominaux dont émergent, en cas de danger, des flagelles munis de rosettes de soies[1].
+Ses espèces se rencontrent en Asie du Sud et du Sud-Est et en Océanie, sur une aire s'étendant du Sri Lanka aux îles Salomon. Les chenilles possèdent un organe défensif unique en son genre, constitué de deux tubercules abdominaux dont émergent, en cas de danger, des flagelles munis de rosettes de soies.
 </t>
         </is>
       </c>
@@ -512,22 +524,24 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon FUNET Tree of Life  (2 février 2020)[2] :
-Curetis thetis (Drury, [1773])
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon FUNET Tree of Life  (2 février 2020) :
+Curetis thetis (Drury, )
 Curetis saronis Moore, 1877
 Curetis nesophila (C. &amp; R. Felder, 1862)
 Curetis venata Fruhstorfer, 1908
 Curetis barsine Felder, 1860
 Curetis tagalica (C. &amp; R. Felder, 1862)
 Curetis regula Evans, 1954
-Curetis insularis (Horsfield, [1829])
+Curetis insularis (Horsfield, )
 Curetis freda Eliot, 1959
-Curetis sperthis (C. &amp; R. Felder, [1865])
+Curetis sperthis (C. &amp; R. Felder, )
 Curetis siva Evans, 1954
 Curetis felderi Distant, 1884
-Curetis santana (Moore, [1858])
+Curetis santana (Moore, )
 Curetis tonkina Evans, 1954
 Curetis bulis (Westwood, 1852)
 Curetis acuta Moore, 1877
